--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160829.5408588195</v>
+        <v>-163437.1805964989</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12878970.02256665</v>
+        <v>12878970.02256664</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>35.70340986810766</v>
+        <v>126.2532346395505</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>208.565058710317</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.713472214636431</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.47323847043714</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>37.01700063246092</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.7643689007416</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>192.2460122353174</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.45613051247591</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>62.4909454236885</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>146.1164210523846</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>190.6432322684505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>8.941881498921612</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>78.25179531354837</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.268486125805158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4.974488840438626</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>261.3761590502101</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>277.5227458350246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.86507844888251</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437134</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>132.5039425933943</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>16.93966244919601</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2770,16 +2770,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2956,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>176.76214411214</v>
+        <v>146.7151441592118</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>32.27552175740365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.39795577639021</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>75.00788511618036</v>
+        <v>252.5895617850416</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>129.2171928962052</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>161.1739971048553</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>55.49215756129646</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1221.998780846215</v>
+        <v>1054.468865132033</v>
       </c>
       <c r="C2" t="n">
-        <v>853.036263905803</v>
+        <v>685.5063481916218</v>
       </c>
       <c r="D2" t="n">
-        <v>494.7705652990526</v>
+        <v>685.5063481916218</v>
       </c>
       <c r="E2" t="n">
-        <v>494.7705652990526</v>
+        <v>685.5063481916218</v>
       </c>
       <c r="F2" t="n">
-        <v>494.7705652990526</v>
+        <v>274.5204434020142</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4361,19 +4361,19 @@
         <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>2167.303118727349</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>2167.303118727349</v>
       </c>
       <c r="W2" t="n">
-        <v>2372.203711147228</v>
+        <v>1814.534463457235</v>
       </c>
       <c r="X2" t="n">
-        <v>1998.737952886148</v>
+        <v>1441.068705196155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.598620910336</v>
+        <v>1441.068705196155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>775.2612895234822</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928754</v>
+        <v>1039.200821018968</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1324.5346914523</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1953.263339287719</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.0263077932267</v>
+        <v>1980.443288605771</v>
       </c>
       <c r="C4" t="n">
-        <v>634.0901248653198</v>
+        <v>1811.507105677864</v>
       </c>
       <c r="D4" t="n">
-        <v>483.9734854529841</v>
+        <v>1811.507105677864</v>
       </c>
       <c r="E4" t="n">
-        <v>336.060391870591</v>
+        <v>1663.594012095471</v>
       </c>
       <c r="F4" t="n">
-        <v>336.060391870591</v>
+        <v>1516.704064597561</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>1516.704064597561</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>1446.529076243584</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>2472.33270548243</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>2269.860458642732</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>2269.860458642732</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353225</v>
+        <v>2269.860458642732</v>
       </c>
       <c r="V4" t="n">
-        <v>1022.065682353225</v>
+        <v>2269.860458642732</v>
       </c>
       <c r="W4" t="n">
-        <v>1022.065682353225</v>
+        <v>1980.443288605771</v>
       </c>
       <c r="X4" t="n">
-        <v>984.6747726234664</v>
+        <v>1980.443288605771</v>
       </c>
       <c r="Y4" t="n">
-        <v>984.6747726234664</v>
+        <v>1980.443288605771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.378952710154</v>
+        <v>1587.796151800259</v>
       </c>
       <c r="C5" t="n">
-        <v>649.4164357697421</v>
+        <v>1587.796151800259</v>
       </c>
       <c r="D5" t="n">
-        <v>649.4164357697421</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E5" t="n">
-        <v>649.4164357697421</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>238.4305309801345</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4580,37 +4580,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2271.627694413944</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>1940.564807070373</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.984042947045</v>
+        <v>1587.796151800259</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.518284685965</v>
+        <v>1587.796151800259</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.378952710154</v>
+        <v>1587.796151800259</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>942.9699568457223</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1699.68540766379</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>897.4885165608364</v>
+        <v>302.0048569501972</v>
       </c>
       <c r="C7" t="n">
-        <v>728.5523336329295</v>
+        <v>133.0686740222903</v>
       </c>
       <c r="D7" t="n">
-        <v>578.4356942205937</v>
+        <v>133.0686740222903</v>
       </c>
       <c r="E7" t="n">
-        <v>578.4356942205937</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F7" t="n">
-        <v>431.5457467226834</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G7" t="n">
-        <v>263.5695579845727</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>114.9220224174546</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4744,31 +4744,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V7" t="n">
-        <v>1125.478067458854</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="W7" t="n">
-        <v>1125.478067458854</v>
+        <v>711.6428726784543</v>
       </c>
       <c r="X7" t="n">
-        <v>897.4885165608364</v>
+        <v>483.653321780437</v>
       </c>
       <c r="Y7" t="n">
-        <v>897.4885165608364</v>
+        <v>483.653321780437</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.050105725048</v>
+        <v>1410.105451134367</v>
       </c>
       <c r="C8" t="n">
-        <v>955.0875887846366</v>
+        <v>1041.142934193955</v>
       </c>
       <c r="D8" t="n">
-        <v>596.8218901778862</v>
+        <v>1041.142934193955</v>
       </c>
       <c r="E8" t="n">
-        <v>211.0336375796419</v>
+        <v>655.3546815957106</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>244.3687768061031</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135506</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4817,37 +4817,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2381.347406599812</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2127.768178542059</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.284519256242</v>
+        <v>1796.705291198488</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.515863986128</v>
+        <v>1796.705291198488</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.050105725048</v>
+        <v>1796.705291198488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1324.050105725048</v>
+        <v>1796.705291198488</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552864</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L9" t="n">
-        <v>1104.091621317939</v>
+        <v>599.2586963421431</v>
       </c>
       <c r="M9" t="n">
-        <v>1470.397510810264</v>
+        <v>965.5645858344685</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>835.3894955506843</v>
+        <v>654.3992749168414</v>
       </c>
       <c r="C10" t="n">
-        <v>666.4533126227774</v>
+        <v>654.3992749168414</v>
       </c>
       <c r="D10" t="n">
-        <v>516.3366732104416</v>
+        <v>504.2826355045056</v>
       </c>
       <c r="E10" t="n">
-        <v>368.4235796280485</v>
+        <v>356.3695419221125</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>209.4795944242021</v>
       </c>
       <c r="G10" t="n">
         <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1465.820090422471</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1465.820090422471</v>
+        <v>1357.865893164276</v>
       </c>
       <c r="V10" t="n">
-        <v>1465.820090422471</v>
+        <v>1103.181404958389</v>
       </c>
       <c r="W10" t="n">
-        <v>1465.820090422471</v>
+        <v>1103.181404958389</v>
       </c>
       <c r="X10" t="n">
-        <v>1237.830539524454</v>
+        <v>875.1918540603715</v>
       </c>
       <c r="Y10" t="n">
-        <v>1017.037960380924</v>
+        <v>654.3992749168414</v>
       </c>
     </row>
     <row r="11">
@@ -5048,10 +5048,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1713.444758237568</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1458.760270031681</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.343099994721</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.343099994721</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511905</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,10 +5832,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
         <v>716.6687843969308</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>422.7903292978459</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,16 +6312,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1063.573343591573</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6418,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1466.014387565343</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1245.221808421813</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2407.167168654614</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2224.312334309519</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2004.71086933246</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2066.540128420693</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V40" t="n">
-        <v>1708.43867092217</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.02150088521</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="44">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>151.6735093079758</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.3850817401784</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>193.0765664438059</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177567</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325423</v>
       </c>
       <c r="P6" t="n">
-        <v>220.1297156654651</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>119.3759750973109</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>299.8549597144498</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-8.179243303904299e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>376.5843288269365</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>42.53939429191226</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.80831533903404</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>9.000252501566365</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5559695740487</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.74287850523353</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>128.4813855737352</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>109.4223302771041</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>114.1584408891655</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>26.97729093373145</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>211.5151132204106</v>
+        <v>33.93343655154939</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>88.18825743108309</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>90.96364621897268</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.7546635373314</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="F2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="F2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837521</v>
@@ -26338,22 +26338,22 @@
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837521</v>
-      </c>
       <c r="M2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898949</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109300.0494576002</v>
+        <v>109300.0494576007</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
@@ -26427,34 +26427,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695117</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-863607.093627091</v>
+        <v>-863828.2249410637</v>
       </c>
       <c r="C6" t="n">
-        <v>-87421.54017754356</v>
+        <v>-87421.54017754615</v>
       </c>
       <c r="D6" t="n">
-        <v>85342.81961234863</v>
+        <v>85342.81961234871</v>
       </c>
       <c r="E6" t="n">
-        <v>-305618.9032176006</v>
+        <v>-305653.6411430368</v>
       </c>
       <c r="F6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027142</v>
       </c>
       <c r="G6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027142</v>
       </c>
       <c r="H6" t="n">
-        <v>195269.9645281501</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="I6" t="n">
-        <v>195269.9645281499</v>
+        <v>195235.226602714</v>
       </c>
       <c r="J6" t="n">
-        <v>25855.94770210204</v>
+        <v>25821.20977666641</v>
       </c>
       <c r="K6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="L6" t="n">
-        <v>195269.9645281499</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="M6" t="n">
-        <v>64385.50762391464</v>
+        <v>64350.76969847931</v>
       </c>
       <c r="N6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027144</v>
       </c>
       <c r="O6" t="n">
-        <v>195269.9645281499</v>
+        <v>195235.2266027145</v>
       </c>
       <c r="P6" t="n">
-        <v>171020.4900567702</v>
+        <v>171020.4900567704</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,34 +26957,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522365</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>525.2100965644022</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>647.4981915352462</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>525.210096564402</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>647.4981915352464</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>286.0345040554936</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>343.5274965027766</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>80.7296491934834</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>188.6926547565762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.7606544811277</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>58.79742354185788</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>65.97783213409326</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>41.99971408931263</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>260.7596246893268</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>220.8817911134188</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.3545453518079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>142.4534333998901</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31434,28 +31434,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,31 +31671,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>429.5686803348794</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>408.9906691093579</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>367.1462239728044</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>501.0609547350988</v>
       </c>
       <c r="P6" t="n">
-        <v>472.1264104786154</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297621</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35106,13 +35106,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L9" t="n">
-        <v>419.6910752148005</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>551.8516545276</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
